--- a/Estimacion horas.xlsx
+++ b/Estimacion horas.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\Documents\GitHub\Samurai-Shodown-Neo-Geo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Albert</t>
   </si>
@@ -51,13 +46,19 @@
   </si>
   <si>
     <t>Crear modulo</t>
+  </si>
+  <si>
+    <t>1 Hora</t>
+  </si>
+  <si>
+    <t>30 Minuts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +177,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -203,7 +205,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -274,7 +275,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -309,7 +310,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -486,27 +487,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="53" customWidth="1"/>
     <col min="3" max="4" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -518,134 +519,140 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="9"/>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
       <c r="B5" s="16"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="12"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="10"/>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="17"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="14"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="11"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="12"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="10"/>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="17"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="13"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="11"/>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="9"/>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="12"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="10"/>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="17"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="13"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="11"/>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="12"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="13"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="8"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="12"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="12"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="7"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="13"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="8"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="11"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="12"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="13"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B4:B6"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="C19:C21"/>
     <mergeCell ref="D19:D21"/>
@@ -662,8 +669,6 @@
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="D7:D9"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B4:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Estimacion horas.xlsx
+++ b/Estimacion horas.xlsx
@@ -51,7 +51,7 @@
     <t>1 Hora</t>
   </si>
   <si>
-    <t>30 Minuts</t>
+    <t>20 Minuts</t>
   </si>
 </sst>
 </file>
@@ -178,15 +178,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -194,15 +185,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -213,6 +195,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -487,7 +487,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -498,7 +498,7 @@
   <dimension ref="A3:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -523,134 +523,136 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="13"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="13"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="16"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="14"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="17"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="12"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="15"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="13"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="16"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="14"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="17"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="15"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="17"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="15"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="16"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="17"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="15"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="16"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B19:B21"/>
@@ -667,8 +669,6 @@
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Estimacion horas.xlsx
+++ b/Estimacion horas.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\Documents\GitHub\Samurai-Shodown-Neo-Geo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Albert</t>
   </si>
@@ -48,17 +53,26 @@
     <t>Crear modulo</t>
   </si>
   <si>
-    <t>1 Hora</t>
-  </si>
-  <si>
-    <t>20 Minuts</t>
+    <t>120 minuts</t>
+  </si>
+  <si>
+    <t>60 minuts</t>
+  </si>
+  <si>
+    <t>Mapear teclas de puñetazo, salto, patada. Animacion olas rompiendose</t>
+  </si>
+  <si>
+    <t>Adaptar faena hecha en calse a nuestro proyecto (cambiar escenas), añadir module de musica.</t>
+  </si>
+  <si>
+    <t>300 minuts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,7 +185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1"/>
@@ -187,6 +201,15 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -205,14 +228,29 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -487,27 +525,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="53" customWidth="1"/>
     <col min="3" max="4" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -519,138 +557,225 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="C4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="24">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="16"/>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="B5" s="13"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="8"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="D7" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="10"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="16"/>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="11"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="17"/>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="15"/>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="10"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="16"/>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="11"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="17"/>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="15"/>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="B13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="13"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="16"/>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="14"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="17"/>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="12"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="15"/>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="13"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="16"/>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="14"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="17"/>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="12"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="15"/>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="13"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="16"/>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="14"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="17"/>
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="9">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="10"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="10"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="27">
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="B7:B9"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="C4:C6"/>
@@ -667,8 +792,6 @@
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Estimacion horas.xlsx
+++ b/Estimacion horas.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\Documents\GitHub\Samurai-Shodown-Neo-Geo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Albert</t>
   </si>
@@ -66,13 +61,22 @@
   </si>
   <si>
     <t>300 minuts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Background del mapa de Haohamru(con todas sus animaciones)</t>
+  </si>
+  <si>
+    <t>Crear modulos menu y VictoryHaohmaru, y backgrounds</t>
+  </si>
+  <si>
+    <t>45 minuts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +196,15 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -211,6 +224,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -218,24 +240,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -525,27 +529,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="53" customWidth="1"/>
     <col min="3" max="4" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -557,11 +561,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="21" t="s">
@@ -571,213 +575,212 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
-      <c r="B5" s="13"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="22"/>
       <c r="D5" s="25"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1"/>
-      <c r="B6" s="14"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="23"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="19"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="20"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="9"/>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="19"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="20"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="12">
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="1"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="19"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="20"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="12">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="10"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="7"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="11"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="8"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="15"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="9"/>
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1"/>
       <c r="B20" s="16"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="10"/>
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1"/>
       <c r="B21" s="17"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="11"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="11"/>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="12">
         <v>420</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="1"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="10"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="19"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="13"/>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="11"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="20"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="10"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="7"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="13"/>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="11"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="8"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="15"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="9"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="9"/>
+      <c r="D28" s="12"/>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1"/>
       <c r="B29" s="16"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="10"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="10"/>
+      <c r="D29" s="13"/>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1"/>
       <c r="B30" s="17"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B19:B21"/>
@@ -792,6 +795,19 @@
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="C16:C18"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Estimacion horas.xlsx
+++ b/Estimacion horas.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albertgb7\Documents\GitHub\Samurai-Shodown-Neo-Geo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
@@ -10,8 +15,8 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>Albert</t>
   </si>
@@ -70,13 +75,19 @@
   </si>
   <si>
     <t>45 minuts</t>
+  </si>
+  <si>
+    <t>Adaptar input nuevo</t>
+  </si>
+  <si>
+    <t>modulo proyectiles, animacion proyectil, colliders</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,7 +135,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -184,12 +195,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1"/>
@@ -224,13 +268,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -241,21 +294,57 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,27 +618,50 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:D30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D4" sqref="D4:D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="53" customWidth="1"/>
     <col min="3" max="4" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="51.85546875" customWidth="1"/>
+    <col min="12" max="12" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="N1" s="38"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F2" s="39"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="38"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -560,227 +672,391 @@
       <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="F3" s="1"/>
+      <c r="G3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="33">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="F4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="12">
+        <v>20</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="12"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="25"/>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="B5" s="22"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="34"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="13"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="13"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="14"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="14"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="30">
+        <v>120</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="G7" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="I7" s="30">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="13"/>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="B8" s="22"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="31"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="31"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="14"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="B9" s="23"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="32"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="32"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="30">
+        <v>420</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="12">
+        <v>70</v>
+      </c>
+      <c r="L10" s="38"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="13"/>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="B11" s="22"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="31"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="14"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="12">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="B12" s="23"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="32"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="30">
+        <v>270</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="30"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="13"/>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="B14" s="22"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="31"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="31"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="14"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="12">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="B15" s="23"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="32"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="32"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="30">
+        <v>90</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="30"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="13"/>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="B17" s="22"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="31"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="31"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="14"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="12"/>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="B18" s="23"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="32"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="32"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="30"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="13"/>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="B20" s="25"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="31"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="30"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="14"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="12">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="B21" s="26"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="32"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="31"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="30"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="32"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="13"/>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="B23" s="22"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="31"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="30"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="14"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="12">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="B24" s="23"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="32"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="31"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="30"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="32"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="13"/>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="B26" s="36"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="31"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="30"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="14"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="12"/>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="B27" s="37"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="32"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="31"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="30"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="32"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="13"/>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="B29" s="25"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="31"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="14"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="45">
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B19:B21"/>
@@ -795,19 +1071,6 @@
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="C16:C18"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Estimacion horas.xlsx
+++ b/Estimacion horas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albertgb7\Documents\GitHub\Samurai-Shodown-Neo-Geo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Samurai-Shodown-Neo-Geo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>Albert</t>
   </si>
@@ -81,12 +81,15 @@
   </si>
   <si>
     <t>modulo proyectiles, animacion proyectil, colliders</t>
+  </si>
+  <si>
+    <t>Arreglar puñetazo y salto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -276,75 +279,75 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,7 +409,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -441,7 +444,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -629,7 +632,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D21"/>
+      <selection activeCell="D19" sqref="D19:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,25 +644,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="N1" s="38"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="N1" s="18"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F2" s="39"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="38"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="18"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -697,13 +700,13 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="43">
         <v>60</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -729,9 +732,9 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="34"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="44"/>
       <c r="F5" s="1"/>
       <c r="G5" s="16"/>
       <c r="H5" s="10"/>
@@ -743,8 +746,8 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="20"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="5"/>
       <c r="F6" s="1"/>
       <c r="G6" s="17"/>
@@ -757,7 +760,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="37" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="27" t="s">
@@ -769,7 +772,7 @@
       <c r="F7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="24" t="s">
         <v>14</v>
       </c>
       <c r="H7" s="27" t="s">
@@ -781,27 +784,27 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="22"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="28"/>
       <c r="D8" s="31"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="36"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="28"/>
       <c r="I8" s="31"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="23"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="29"/>
       <c r="D9" s="32"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="37"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="29"/>
       <c r="I9" s="32"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="37" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="27" t="s">
@@ -822,11 +825,11 @@
       <c r="I10" s="12">
         <v>70</v>
       </c>
-      <c r="L10" s="38"/>
+      <c r="L10" s="18"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="22"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="28"/>
       <c r="D11" s="31"/>
       <c r="F11" s="1"/>
@@ -836,7 +839,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="23"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="29"/>
       <c r="D12" s="32"/>
       <c r="F12" s="1"/>
@@ -846,7 +849,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="37" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="27" t="s">
@@ -856,33 +859,33 @@
         <v>270</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="35"/>
+      <c r="G13" s="24"/>
       <c r="H13" s="27"/>
       <c r="I13" s="30"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="22"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="28"/>
       <c r="D14" s="31"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="36"/>
+      <c r="G14" s="25"/>
       <c r="H14" s="28"/>
       <c r="I14" s="31"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="23"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="29"/>
       <c r="D15" s="32"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="37"/>
+      <c r="G15" s="26"/>
       <c r="H15" s="29"/>
       <c r="I15" s="32"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="37" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="27" t="s">
@@ -892,171 +895,146 @@
         <v>90</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="35"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="27"/>
       <c r="I16" s="30"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="22"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="28"/>
       <c r="D17" s="31"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="36"/>
+      <c r="G17" s="25"/>
       <c r="H17" s="28"/>
       <c r="I17" s="31"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="23"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="29"/>
       <c r="D18" s="32"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="43"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="33"/>
       <c r="H18" s="29"/>
       <c r="I18" s="32"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="30"/>
+      <c r="B19" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="30">
+        <v>40</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="25"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="28"/>
       <c r="D20" s="31"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="35"/>
+      <c r="G20" s="24"/>
       <c r="H20" s="27"/>
       <c r="I20" s="30"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="26"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="29"/>
       <c r="D21" s="32"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="36"/>
+      <c r="G21" s="25"/>
       <c r="H21" s="28"/>
       <c r="I21" s="31"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="21"/>
+      <c r="B22" s="37"/>
       <c r="C22" s="27"/>
       <c r="D22" s="30"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="37"/>
+      <c r="G22" s="26"/>
       <c r="H22" s="29"/>
       <c r="I22" s="32"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="22"/>
+      <c r="B23" s="38"/>
       <c r="C23" s="28"/>
       <c r="D23" s="31"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="35"/>
+      <c r="G23" s="24"/>
       <c r="H23" s="27"/>
       <c r="I23" s="30"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="23"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="29"/>
       <c r="D24" s="32"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="36"/>
+      <c r="G24" s="25"/>
       <c r="H24" s="28"/>
       <c r="I24" s="31"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="35"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="27"/>
       <c r="D25" s="30"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="37"/>
+      <c r="G25" s="26"/>
       <c r="H25" s="29"/>
       <c r="I25" s="32"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="36"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="28"/>
       <c r="D26" s="31"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="35"/>
+      <c r="G26" s="24"/>
       <c r="H26" s="27"/>
       <c r="I26" s="30"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="37"/>
+      <c r="B27" s="26"/>
       <c r="C27" s="29"/>
       <c r="D27" s="32"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="36"/>
+      <c r="G27" s="25"/>
       <c r="H27" s="28"/>
       <c r="I27" s="31"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="24"/>
+      <c r="B28" s="34"/>
       <c r="C28" s="27"/>
       <c r="D28" s="30"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="37"/>
+      <c r="G28" s="26"/>
       <c r="H28" s="29"/>
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="25"/>
+      <c r="B29" s="35"/>
       <c r="C29" s="28"/>
       <c r="D29" s="31"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="26"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="29"/>
       <c r="D30" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B19:B21"/>
@@ -1071,6 +1049,37 @@
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="C16:C18"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="I26:I28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Estimacion horas.xlsx
+++ b/Estimacion horas.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Samurai-Shodown-Neo-Geo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
@@ -15,8 +10,8 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>Albert</t>
   </si>
@@ -84,13 +79,19 @@
   </si>
   <si>
     <t>Arreglar puñetazo y salto</t>
+  </si>
+  <si>
+    <t>Crear modulos player 2(sprites, acciones,etc)</t>
+  </si>
+  <si>
+    <t>Arreglar patada</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,6 +286,57 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -294,58 +346,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -409,7 +410,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -444,7 +445,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -621,21 +622,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:D21"/>
+      <selection activeCell="I16" sqref="I16:I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="53" customWidth="1"/>
     <col min="3" max="4" width="11.42578125" customWidth="1"/>
@@ -643,7 +644,7 @@
     <col min="12" max="12" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="F1" s="18"/>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
@@ -652,7 +653,7 @@
       <c r="L1" s="18"/>
       <c r="N1" s="18"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="F2" s="19"/>
       <c r="G2" s="20"/>
       <c r="H2" s="22"/>
@@ -664,7 +665,7 @@
       <c r="N2" s="21"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -696,17 +697,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="39">
         <v>60</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -730,11 +731,11 @@
       <c r="M4" s="9"/>
       <c r="N4" s="12"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="1"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="44"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="40"/>
       <c r="F5" s="1"/>
       <c r="G5" s="16"/>
       <c r="H5" s="10"/>
@@ -744,10 +745,10 @@
       <c r="M5" s="10"/>
       <c r="N5" s="13"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="1"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="42"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="26"/>
       <c r="D6" s="5"/>
       <c r="F6" s="1"/>
       <c r="G6" s="17"/>
@@ -758,59 +759,59 @@
       <c r="M6" s="11"/>
       <c r="N6" s="14"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="1"/>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="36">
         <v>120</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="36">
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="1"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="31"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="37"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="31"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G8" s="42"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="37"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="32"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="38"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="32"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G9" s="43"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="38"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1"/>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="36">
         <v>420</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -827,214 +828,257 @@
       </c>
       <c r="L10" s="18"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="1"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="31"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="37"/>
       <c r="F11" s="1"/>
       <c r="G11" s="7"/>
       <c r="H11" s="10"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="1"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="32"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="38"/>
       <c r="F12" s="1"/>
       <c r="G12" s="8"/>
       <c r="H12" s="11"/>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="1"/>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="36">
         <v>270</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="30"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G13" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="36">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="31"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="37"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="31"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G14" s="42"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="37"/>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="32"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="38"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="32"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G15" s="43"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="38"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1"/>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="36">
         <v>90</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="30"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G16" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="36">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="31"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="37"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="31"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G17" s="42"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="37"/>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="32"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="38"/>
       <c r="F18" s="23"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="32"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G18" s="44"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="38"/>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1"/>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="36">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="1"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="37"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="30"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G20" s="41"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="36"/>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="38"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="31"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G21" s="42"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="37"/>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="30"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="36"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="32"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G22" s="43"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="38"/>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="31"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="37"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="30"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G23" s="41"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="36"/>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="32"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="38"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="31"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G24" s="42"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="37"/>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="30"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="36"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="32"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G25" s="43"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="38"/>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="31"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="37"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="30"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G26" s="41"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="36"/>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="32"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="38"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="31"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G27" s="42"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="37"/>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="36"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="32"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G28" s="43"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="38"/>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="31"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="31"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="37"/>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B19:B21"/>
@@ -1049,37 +1093,6 @@
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="C16:C18"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="I26:I28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Estimacion horas.xlsx
+++ b/Estimacion horas.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Samurai-Shodown-Neo-Geo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
@@ -10,8 +15,8 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>Albert</t>
   </si>
@@ -85,13 +90,16 @@
   </si>
   <si>
     <t>Arreglar patada</t>
+  </si>
+  <si>
+    <t>Sistema de encarar al oponente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +294,54 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -295,58 +351,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -622,21 +630,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16:I18"/>
+      <selection activeCell="D22" sqref="D22:D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="53" customWidth="1"/>
     <col min="3" max="4" width="11.42578125" customWidth="1"/>
@@ -644,7 +652,7 @@
     <col min="12" max="12" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F1" s="18"/>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
@@ -653,7 +661,7 @@
       <c r="L1" s="18"/>
       <c r="N1" s="18"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F2" s="19"/>
       <c r="G2" s="20"/>
       <c r="H2" s="22"/>
@@ -665,7 +673,7 @@
       <c r="N2" s="21"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -697,17 +705,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D4" s="43">
         <v>60</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -731,11 +739,11 @@
       <c r="M4" s="9"/>
       <c r="N4" s="12"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="40"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="44"/>
       <c r="F5" s="1"/>
       <c r="G5" s="16"/>
       <c r="H5" s="10"/>
@@ -745,10 +753,10 @@
       <c r="M5" s="10"/>
       <c r="N5" s="13"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="26"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="5"/>
       <c r="F6" s="1"/>
       <c r="G6" s="17"/>
@@ -759,59 +767,59 @@
       <c r="M6" s="11"/>
       <c r="N6" s="14"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="30">
         <v>120</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="36">
+      <c r="I7" s="30">
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="37"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="31"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="37"/>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="G8" s="25"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="31"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="38"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="32"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="38"/>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="G9" s="26"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="32"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="30">
         <v>420</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -828,257 +836,232 @@
       </c>
       <c r="L10" s="18"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="37"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="31"/>
       <c r="F11" s="1"/>
       <c r="G11" s="7"/>
       <c r="H11" s="10"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="38"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="32"/>
       <c r="F12" s="1"/>
       <c r="G12" s="8"/>
       <c r="H12" s="11"/>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D13" s="30">
         <v>270</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="41" t="s">
+      <c r="G13" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="33" t="s">
+      <c r="H13" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="36">
+      <c r="I13" s="30">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="37"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="31"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="37"/>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="G14" s="25"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="31"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="32"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="38"/>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="G15" s="26"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="32"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="30">
         <v>90</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="41" t="s">
+      <c r="G16" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="33" t="s">
+      <c r="H16" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="36">
+      <c r="I16" s="30">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="37"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="31"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="37"/>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="G17" s="25"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="31"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="38"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="32"/>
       <c r="F18" s="23"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="38"/>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="G18" s="33"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="32"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="30">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="37"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="31"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="36"/>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="G20" s="24"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="30"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="38"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="32"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="37"/>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="G21" s="25"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="31"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="36"/>
+      <c r="B22" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="30">
+        <v>150</v>
+      </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="38"/>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="G22" s="26"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="32"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="37"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="31"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="36"/>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="G23" s="24"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="30"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="38"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="32"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="37"/>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="G24" s="25"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="31"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="36"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="30"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="38"/>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="G25" s="26"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="32"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="37"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="31"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="36"/>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="G26" s="24"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="30"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="38"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="32"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="37"/>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="G27" s="25"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="31"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="36"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="30"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="38"/>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="G28" s="26"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="32"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="37"/>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="B29" s="35"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="31"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="38"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B19:B21"/>
@@ -1093,6 +1076,37 @@
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="C16:C18"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="I26:I28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Estimacion horas.xlsx
+++ b/Estimacion horas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
   <si>
     <t>Albert</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Mapear teclas de puñetazo, salto, patada. Animacion olas rompiendose</t>
   </si>
   <si>
-    <t>Adaptar faena hecha en calse a nuestro proyecto (cambiar escenas), añadir module de musica.</t>
-  </si>
-  <si>
     <t>300 minuts</t>
   </si>
   <si>
@@ -93,6 +90,27 @@
   </si>
   <si>
     <t>Sistema de encarar al oponente</t>
+  </si>
+  <si>
+    <t>Hitbox</t>
+  </si>
+  <si>
+    <t>Arreglar modul input</t>
+  </si>
+  <si>
+    <t>180 minuts</t>
+  </si>
+  <si>
+    <t>Adaptar faena hecha en calse a nuestro proyecto (cambiar escenas), añadir modulo de musica.</t>
+  </si>
+  <si>
+    <t>Player 2</t>
+  </si>
+  <si>
+    <t>Fuentes</t>
+  </si>
+  <si>
+    <t>Timer</t>
   </si>
 </sst>
 </file>
@@ -245,7 +263,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1"/>
@@ -294,6 +312,48 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -303,58 +363,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -638,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:D24"/>
+      <selection activeCell="D37" sqref="D37:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,13 +718,13 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="36">
         <v>60</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -741,9 +750,9 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="44"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="37"/>
       <c r="F5" s="1"/>
       <c r="G5" s="16"/>
       <c r="H5" s="10"/>
@@ -755,8 +764,8 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="42"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="26"/>
       <c r="D6" s="5"/>
       <c r="F6" s="1"/>
       <c r="G6" s="17"/>
@@ -769,67 +778,67 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="33">
         <v>120</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="27" t="s">
+      <c r="G7" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="33">
         <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="31"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="34"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="31"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="32"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="35"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="32"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="35"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="30">
+      <c r="D10" s="33">
         <v>420</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>16</v>
       </c>
       <c r="I10" s="12">
         <v>70</v>
@@ -838,9 +847,9 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="31"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="34"/>
       <c r="F11" s="1"/>
       <c r="G11" s="7"/>
       <c r="H11" s="10"/>
@@ -848,9 +857,9 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="32"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="35"/>
       <c r="F12" s="1"/>
       <c r="G12" s="8"/>
       <c r="H12" s="11"/>
@@ -858,210 +867,397 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="30">
+      <c r="B13" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="33">
         <v>270</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="30">
+      <c r="G13" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="33">
         <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="31"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="34"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="31"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="32"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="35"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="32"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="35"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="27" t="s">
+      <c r="B16" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="33">
         <v>90</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="27" t="s">
+      <c r="G16" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="30">
+      <c r="I16" s="33">
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="31"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="34"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="31"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="34"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="32"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="35"/>
       <c r="F18" s="23"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="32"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="35"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="27" t="s">
+      <c r="B19" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="33">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="31"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="34"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="30"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="33"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="32"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="35"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="31"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="27" t="s">
+      <c r="B22" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="33">
         <v>150</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="32"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="35"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="31"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="34"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="30"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="33"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="32"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="35"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="31"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="30"/>
+      <c r="B25" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="33">
+        <v>120</v>
+      </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="32"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="35"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="31"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="34"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="30"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="33"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="32"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="35"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="31"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="30"/>
+      <c r="B28" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="33">
+        <v>250</v>
+      </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="32"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="35"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="31"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="34"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="32"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="35"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="33">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="34"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="35"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="33">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="34"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="35"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="33">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="34"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="35"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="33"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="34"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="35"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="33"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="34"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="35"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="33"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="34"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="63">
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B19:B21"/>
@@ -1076,37 +1272,6 @@
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="C16:C18"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="I26:I28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Estimacion horas.xlsx
+++ b/Estimacion horas.xlsx
@@ -312,6 +312,45 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -321,49 +360,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -649,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37:D39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,13 +718,13 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="40">
         <v>60</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -750,9 +750,9 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="37"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="41"/>
       <c r="F5" s="1"/>
       <c r="G5" s="16"/>
       <c r="H5" s="10"/>
@@ -764,8 +764,8 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="5"/>
       <c r="F6" s="1"/>
       <c r="G6" s="17"/>
@@ -778,57 +778,57 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="30">
         <v>120</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="30">
         <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="34"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="31"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="35"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="32"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="32"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="30">
         <v>420</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -847,9 +847,9 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="34"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="31"/>
       <c r="F11" s="1"/>
       <c r="G11" s="7"/>
       <c r="H11" s="10"/>
@@ -857,9 +857,9 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="35"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="32"/>
       <c r="F12" s="1"/>
       <c r="G12" s="8"/>
       <c r="H12" s="11"/>
@@ -867,397 +867,348 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="30">
         <v>270</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="38" t="s">
+      <c r="G13" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="30">
         <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="34"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="31"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="35"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="32"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="32"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="33">
+      <c r="D16" s="30">
         <v>90</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="38" t="s">
+      <c r="G16" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="30" t="s">
+      <c r="H16" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="33">
+      <c r="I16" s="30">
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="34"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="31"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="31"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="35"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="32"/>
       <c r="F18" s="23"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="35"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="32"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="33">
+      <c r="D19" s="30">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="34"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="31"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="30"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="35"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="32"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="31"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="33">
+      <c r="D22" s="30">
         <v>150</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="32"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="34"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="31"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="30"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="35"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="32"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="31"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="33">
+      <c r="D25" s="30">
         <v>120</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="32"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="34"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="31"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="30"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="35"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="32"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="31"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="33">
-        <v>250</v>
+      <c r="C28" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="30">
+        <v>30</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="32"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="34"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="31"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="35"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="32"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="33">
+      <c r="D31" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="34"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="31"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="35"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="32"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="33">
+      <c r="D34" s="30">
         <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="34"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="31"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="35"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="32"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="33">
+      <c r="D37" s="30">
         <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="34"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="31"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="35"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="32"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="33"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="30"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="34"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="31"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="35"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="32"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="33"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="30"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="34"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="31"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="35"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="32"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="33"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="30"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="34"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="31"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="35"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B19:B21"/>
@@ -1272,6 +1223,55 @@
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="C16:C18"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Estimacion horas.xlsx
+++ b/Estimacion horas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>Albert</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>Timer</t>
+  </si>
+  <si>
+    <t>Music fix</t>
+  </si>
+  <si>
+    <t>30 minuts</t>
   </si>
 </sst>
 </file>
@@ -312,6 +318,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -339,6 +354,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -349,21 +370,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -649,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:C30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,13 +724,13 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="36">
         <v>60</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -750,9 +756,9 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="41"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="37"/>
       <c r="F5" s="1"/>
       <c r="G5" s="16"/>
       <c r="H5" s="10"/>
@@ -764,8 +770,8 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="39"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="26"/>
       <c r="D6" s="5"/>
       <c r="F6" s="1"/>
       <c r="G6" s="17"/>
@@ -778,57 +784,57 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="33">
         <v>120</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="33">
         <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="31"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="34"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="31"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="32"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="35"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="32"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="35"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="33">
         <v>420</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -847,9 +853,9 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="31"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="34"/>
       <c r="F11" s="1"/>
       <c r="G11" s="7"/>
       <c r="H11" s="10"/>
@@ -857,9 +863,9 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="32"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="35"/>
       <c r="F12" s="1"/>
       <c r="G12" s="8"/>
       <c r="H12" s="11"/>
@@ -867,348 +873,403 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="33">
         <v>270</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="27" t="s">
+      <c r="H13" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="33">
         <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="31"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="34"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="31"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="32"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="35"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="32"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="35"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="33">
         <v>90</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="33" t="s">
+      <c r="G16" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="H16" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="30">
+      <c r="I16" s="33">
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="31"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="34"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="31"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="34"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="32"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="35"/>
       <c r="F18" s="23"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="32"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="35"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="33">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="31"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="34"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="30"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="33"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="32"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="35"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="31"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="33">
         <v>150</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="32"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="35"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="31"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="34"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="30"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="33"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="32"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="35"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="31"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="33">
         <v>120</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="32"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="35"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="31"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="34"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="30"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="33"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="32"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="35"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="31"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="30">
+      <c r="D28" s="33">
         <v>30</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="32"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="35"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="31"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="34"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="32"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="35"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="30">
+      <c r="D31" s="33">
         <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="31"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="34"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="32"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="35"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="30">
+      <c r="D34" s="33">
         <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="31"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="34"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="32"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="35"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="30">
+      <c r="D37" s="33">
         <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="31"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="34"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="32"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="35"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="30"/>
+      <c r="B40" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="33">
+        <v>20</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="31"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="34"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="32"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="35"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="30"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="33"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="31"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="34"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="32"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="35"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="30"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="33"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="31"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="34"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="32"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B19:B21"/>
@@ -1223,55 +1284,6 @@
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="C16:C18"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:D48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Estimacion horas.xlsx
+++ b/Estimacion horas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>Albert</t>
   </si>
@@ -53,18 +53,9 @@
     <t>Crear modulo</t>
   </si>
   <si>
-    <t>120 minuts</t>
-  </si>
-  <si>
     <t>60 minuts</t>
   </si>
   <si>
-    <t>Mapear teclas de puñetazo, salto, patada. Animacion olas rompiendose</t>
-  </si>
-  <si>
-    <t>300 minuts</t>
-  </si>
-  <si>
     <t xml:space="preserve">       Background del mapa de Haohamru(con todas sus animaciones)</t>
   </si>
   <si>
@@ -74,49 +65,91 @@
     <t>45 minuts</t>
   </si>
   <si>
-    <t>Adaptar input nuevo</t>
-  </si>
-  <si>
-    <t>modulo proyectiles, animacion proyectil, colliders</t>
-  </si>
-  <si>
-    <t>Arreglar puñetazo y salto</t>
-  </si>
-  <si>
     <t>Crear modulos player 2(sprites, acciones,etc)</t>
   </si>
   <si>
     <t>Arreglar patada</t>
   </si>
   <si>
-    <t>Sistema de encarar al oponente</t>
-  </si>
-  <si>
     <t>Hitbox</t>
   </si>
   <si>
-    <t>Arreglar modul input</t>
-  </si>
-  <si>
-    <t>180 minuts</t>
-  </si>
-  <si>
-    <t>Adaptar faena hecha en calse a nuestro proyecto (cambiar escenas), añadir modulo de musica.</t>
-  </si>
-  <si>
     <t>Player 2</t>
   </si>
   <si>
-    <t>Fuentes</t>
-  </si>
-  <si>
     <t>Timer</t>
   </si>
   <si>
     <t>Music fix</t>
   </si>
   <si>
-    <t>30 minuts</t>
+    <t>Camera</t>
+  </si>
+  <si>
+    <t>Fonts</t>
+  </si>
+  <si>
+    <t>Fix module input</t>
+  </si>
+  <si>
+    <t>Face opponent</t>
+  </si>
+  <si>
+    <t>Punch and jump</t>
+  </si>
+  <si>
+    <t>New input</t>
+  </si>
+  <si>
+    <t>Projectile module, collision layout, projectile animation</t>
+  </si>
+  <si>
+    <t>Scene change, module music</t>
+  </si>
+  <si>
+    <t>Punch, jump, kick, crushing wave animation</t>
+  </si>
+  <si>
+    <t>30 minutes</t>
+  </si>
+  <si>
+    <t>60 minutes</t>
+  </si>
+  <si>
+    <t>180 minutes</t>
+  </si>
+  <si>
+    <t>120 minutes</t>
+  </si>
+  <si>
+    <t>300 minutes</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Total Time</t>
+  </si>
+  <si>
+    <t>Estimated time</t>
+  </si>
+  <si>
+    <t>Impacts between players</t>
+  </si>
+  <si>
+    <t>Camera limits</t>
+  </si>
+  <si>
+    <t>Scene mapping</t>
+  </si>
+  <si>
+    <t>20 minutes</t>
+  </si>
+  <si>
+    <t>Combo</t>
+  </si>
+  <si>
+    <t>90minutes</t>
   </si>
 </sst>
 </file>
@@ -318,6 +351,45 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -327,49 +399,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -653,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O48"/>
+  <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,13 +724,13 @@
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="4" t="s">
@@ -724,13 +757,13 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="36">
+      <c r="C4" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="40">
         <v>60</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -740,7 +773,7 @@
         <v>6</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" s="12">
         <v>20</v>
@@ -756,9 +789,9 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="37"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="41"/>
       <c r="F5" s="1"/>
       <c r="G5" s="16"/>
       <c r="H5" s="10"/>
@@ -770,8 +803,8 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="5"/>
       <c r="F6" s="1"/>
       <c r="G6" s="17"/>
@@ -784,67 +817,67 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="33">
+      <c r="B7" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="30">
         <v>120</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="30" t="s">
+      <c r="G7" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="33">
+      <c r="H7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="30">
         <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="34"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="31"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="35"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="32"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="32"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="33">
+      <c r="B10" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="30">
         <v>420</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I10" s="12">
         <v>70</v>
@@ -853,9 +886,9 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="34"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="31"/>
       <c r="F11" s="1"/>
       <c r="G11" s="7"/>
       <c r="H11" s="10"/>
@@ -863,9 +896,9 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="35"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="32"/>
       <c r="F12" s="1"/>
       <c r="G12" s="8"/>
       <c r="H12" s="11"/>
@@ -873,403 +906,489 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="30" t="s">
+      <c r="B13" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="30">
+        <v>270</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="33">
-        <v>270</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="33">
+      <c r="I13" s="30">
         <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="34"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="31"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="35"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="32"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="32"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="30" t="s">
+      <c r="B16" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="30">
+        <v>90</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="33">
-        <v>90</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="33">
+      <c r="I16" s="30">
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="34"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="31"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="31"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="35"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="32"/>
       <c r="F18" s="23"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="35"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="32"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="33">
+      <c r="B19" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="30">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="34"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="31"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="30"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="35"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="32"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="31"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="33">
-        <v>150</v>
+      <c r="B22" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="30">
+        <v>120</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="32"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="34"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="31"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="30"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="35"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="32"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="31"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="33">
+      <c r="B25" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="30">
         <v>120</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="32"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="34"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="31"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="30"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="35"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="32"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="31"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="33">
+      <c r="B28" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="30">
         <v>30</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="32"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="34"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="31"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="35"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="32"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="33">
+      <c r="B31" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="34"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="31"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="35"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="32"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="33">
+      <c r="B34" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="30">
         <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="34"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="31"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="35"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="32"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="33">
+      <c r="B37" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="30">
         <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="34"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="31"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="35"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="32"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" s="33">
+      <c r="B40" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="30">
         <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="34"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="31"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="35"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="32"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="33"/>
+      <c r="B43" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="30">
+        <v>60</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="34"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="31"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="35"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="32"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="33"/>
+      <c r="B46" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="30">
+        <v>30</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="34"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="31"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="35"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="32"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="31"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="32"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" s="30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="31"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="32"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" s="30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="31"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="32"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="30"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="31"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="32"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="30"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="31"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
+  <mergeCells count="78">
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D52:D54"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B19:B21"/>
@@ -1284,6 +1403,55 @@
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="C16:C18"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Estimacion horas.xlsx
+++ b/Estimacion horas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>Albert</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>90minutes</t>
+  </si>
+  <si>
+    <t>Block, Pauses ;before and after match; Best of 3 rounds, auto win, auto lose</t>
+  </si>
+  <si>
+    <t>150 minutes</t>
   </si>
 </sst>
 </file>
@@ -378,6 +384,21 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -388,21 +409,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -689,7 +695,7 @@
   <dimension ref="A1:O63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:D27"/>
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,10 +766,10 @@
       <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="36">
         <v>60</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -790,8 +796,8 @@
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="25"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="41"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="37"/>
       <c r="F5" s="1"/>
       <c r="G5" s="16"/>
       <c r="H5" s="10"/>
@@ -804,7 +810,7 @@
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="26"/>
-      <c r="C6" s="39"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="5"/>
       <c r="F6" s="1"/>
       <c r="G6" s="17"/>
@@ -829,7 +835,7 @@
       <c r="F7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="38" t="s">
         <v>10</v>
       </c>
       <c r="H7" s="27" t="s">
@@ -845,7 +851,7 @@
       <c r="C8" s="28"/>
       <c r="D8" s="31"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="34"/>
+      <c r="G8" s="39"/>
       <c r="H8" s="28"/>
       <c r="I8" s="31"/>
     </row>
@@ -855,7 +861,7 @@
       <c r="C9" s="29"/>
       <c r="D9" s="32"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="35"/>
+      <c r="G9" s="40"/>
       <c r="H9" s="29"/>
       <c r="I9" s="32"/>
     </row>
@@ -916,7 +922,7 @@
         <v>270</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="38" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="27" t="s">
@@ -932,7 +938,7 @@
       <c r="C14" s="28"/>
       <c r="D14" s="31"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="34"/>
+      <c r="G14" s="39"/>
       <c r="H14" s="28"/>
       <c r="I14" s="31"/>
     </row>
@@ -942,7 +948,7 @@
       <c r="C15" s="29"/>
       <c r="D15" s="32"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="35"/>
+      <c r="G15" s="40"/>
       <c r="H15" s="29"/>
       <c r="I15" s="32"/>
     </row>
@@ -958,7 +964,7 @@
         <v>90</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="33" t="s">
+      <c r="G16" s="38" t="s">
         <v>14</v>
       </c>
       <c r="H16" s="27" t="s">
@@ -974,7 +980,7 @@
       <c r="C17" s="28"/>
       <c r="D17" s="31"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="34"/>
+      <c r="G17" s="39"/>
       <c r="H17" s="28"/>
       <c r="I17" s="31"/>
     </row>
@@ -984,7 +990,7 @@
       <c r="C18" s="29"/>
       <c r="D18" s="32"/>
       <c r="F18" s="23"/>
-      <c r="G18" s="36"/>
+      <c r="G18" s="41"/>
       <c r="H18" s="29"/>
       <c r="I18" s="32"/>
     </row>
@@ -1006,7 +1012,7 @@
       <c r="C20" s="28"/>
       <c r="D20" s="31"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="33"/>
+      <c r="G20" s="38"/>
       <c r="H20" s="27"/>
       <c r="I20" s="30"/>
     </row>
@@ -1016,7 +1022,7 @@
       <c r="C21" s="29"/>
       <c r="D21" s="32"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="34"/>
+      <c r="G21" s="39"/>
       <c r="H21" s="28"/>
       <c r="I21" s="31"/>
     </row>
@@ -1032,7 +1038,7 @@
         <v>120</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="35"/>
+      <c r="G22" s="40"/>
       <c r="H22" s="29"/>
       <c r="I22" s="32"/>
     </row>
@@ -1042,7 +1048,7 @@
       <c r="C23" s="28"/>
       <c r="D23" s="31"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="33"/>
+      <c r="G23" s="38"/>
       <c r="H23" s="27"/>
       <c r="I23" s="30"/>
     </row>
@@ -1052,7 +1058,7 @@
       <c r="C24" s="29"/>
       <c r="D24" s="32"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="34"/>
+      <c r="G24" s="39"/>
       <c r="H24" s="28"/>
       <c r="I24" s="31"/>
     </row>
@@ -1068,7 +1074,7 @@
         <v>120</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="35"/>
+      <c r="G25" s="40"/>
       <c r="H25" s="29"/>
       <c r="I25" s="32"/>
     </row>
@@ -1078,7 +1084,7 @@
       <c r="C26" s="28"/>
       <c r="D26" s="31"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="33"/>
+      <c r="G26" s="38"/>
       <c r="H26" s="27"/>
       <c r="I26" s="30"/>
     </row>
@@ -1088,7 +1094,7 @@
       <c r="C27" s="29"/>
       <c r="D27" s="32"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="34"/>
+      <c r="G27" s="39"/>
       <c r="H27" s="28"/>
       <c r="I27" s="31"/>
     </row>
@@ -1104,7 +1110,7 @@
         <v>30</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="35"/>
+      <c r="G28" s="40"/>
       <c r="H28" s="29"/>
       <c r="I28" s="32"/>
     </row>
@@ -1338,9 +1344,15 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="30"/>
+      <c r="B58" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D58" s="30">
+        <v>120</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
@@ -1374,21 +1386,55 @@
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B19:B21"/>
@@ -1403,55 +1449,21 @@
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="C16:C18"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D58:D60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Estimacion horas.xlsx
+++ b/Estimacion horas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t>Albert</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>150 minutes</t>
+  </si>
+  <si>
+    <t>Bugfixing</t>
   </si>
 </sst>
 </file>
@@ -384,6 +387,18 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -397,18 +412,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -695,7 +698,7 @@
   <dimension ref="A1:O63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+      <selection activeCell="D61" sqref="D61:D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,10 +769,10 @@
       <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="40">
         <v>60</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -796,8 +799,8 @@
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="25"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="41"/>
       <c r="F5" s="1"/>
       <c r="G5" s="16"/>
       <c r="H5" s="10"/>
@@ -810,7 +813,7 @@
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="26"/>
-      <c r="C6" s="35"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="5"/>
       <c r="F6" s="1"/>
       <c r="G6" s="17"/>
@@ -835,7 +838,7 @@
       <c r="F7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="33" t="s">
         <v>10</v>
       </c>
       <c r="H7" s="27" t="s">
@@ -851,7 +854,7 @@
       <c r="C8" s="28"/>
       <c r="D8" s="31"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="39"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="28"/>
       <c r="I8" s="31"/>
     </row>
@@ -861,7 +864,7 @@
       <c r="C9" s="29"/>
       <c r="D9" s="32"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="40"/>
+      <c r="G9" s="35"/>
       <c r="H9" s="29"/>
       <c r="I9" s="32"/>
     </row>
@@ -922,7 +925,7 @@
         <v>270</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="38" t="s">
+      <c r="G13" s="33" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="27" t="s">
@@ -938,7 +941,7 @@
       <c r="C14" s="28"/>
       <c r="D14" s="31"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="39"/>
+      <c r="G14" s="34"/>
       <c r="H14" s="28"/>
       <c r="I14" s="31"/>
     </row>
@@ -948,7 +951,7 @@
       <c r="C15" s="29"/>
       <c r="D15" s="32"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="40"/>
+      <c r="G15" s="35"/>
       <c r="H15" s="29"/>
       <c r="I15" s="32"/>
     </row>
@@ -964,7 +967,7 @@
         <v>90</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="38" t="s">
+      <c r="G16" s="33" t="s">
         <v>14</v>
       </c>
       <c r="H16" s="27" t="s">
@@ -980,7 +983,7 @@
       <c r="C17" s="28"/>
       <c r="D17" s="31"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="39"/>
+      <c r="G17" s="34"/>
       <c r="H17" s="28"/>
       <c r="I17" s="31"/>
     </row>
@@ -990,7 +993,7 @@
       <c r="C18" s="29"/>
       <c r="D18" s="32"/>
       <c r="F18" s="23"/>
-      <c r="G18" s="41"/>
+      <c r="G18" s="36"/>
       <c r="H18" s="29"/>
       <c r="I18" s="32"/>
     </row>
@@ -1012,7 +1015,7 @@
       <c r="C20" s="28"/>
       <c r="D20" s="31"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="38"/>
+      <c r="G20" s="33"/>
       <c r="H20" s="27"/>
       <c r="I20" s="30"/>
     </row>
@@ -1022,7 +1025,7 @@
       <c r="C21" s="29"/>
       <c r="D21" s="32"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="39"/>
+      <c r="G21" s="34"/>
       <c r="H21" s="28"/>
       <c r="I21" s="31"/>
     </row>
@@ -1038,7 +1041,7 @@
         <v>120</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="40"/>
+      <c r="G22" s="35"/>
       <c r="H22" s="29"/>
       <c r="I22" s="32"/>
     </row>
@@ -1048,7 +1051,7 @@
       <c r="C23" s="28"/>
       <c r="D23" s="31"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="38"/>
+      <c r="G23" s="33"/>
       <c r="H23" s="27"/>
       <c r="I23" s="30"/>
     </row>
@@ -1058,7 +1061,7 @@
       <c r="C24" s="29"/>
       <c r="D24" s="32"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="39"/>
+      <c r="G24" s="34"/>
       <c r="H24" s="28"/>
       <c r="I24" s="31"/>
     </row>
@@ -1074,7 +1077,7 @@
         <v>120</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="40"/>
+      <c r="G25" s="35"/>
       <c r="H25" s="29"/>
       <c r="I25" s="32"/>
     </row>
@@ -1084,7 +1087,7 @@
       <c r="C26" s="28"/>
       <c r="D26" s="31"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="38"/>
+      <c r="G26" s="33"/>
       <c r="H26" s="27"/>
       <c r="I26" s="30"/>
     </row>
@@ -1094,7 +1097,7 @@
       <c r="C27" s="29"/>
       <c r="D27" s="32"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="39"/>
+      <c r="G27" s="34"/>
       <c r="H27" s="28"/>
       <c r="I27" s="31"/>
     </row>
@@ -1110,7 +1113,7 @@
         <v>30</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="40"/>
+      <c r="G28" s="35"/>
       <c r="H28" s="29"/>
       <c r="I28" s="32"/>
     </row>
@@ -1368,9 +1371,15 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="30"/>
+      <c r="B61" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" s="30">
+        <v>180</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
@@ -1386,55 +1395,21 @@
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D52:D54"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B19:B21"/>
@@ -1449,21 +1424,55 @@
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="C16:C18"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Estimacion horas.xlsx
+++ b/Estimacion horas.xlsx
@@ -697,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61:D63"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Estimacion horas.xlsx
+++ b/Estimacion horas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
   <si>
     <t>Albert</t>
   </si>
@@ -387,6 +387,21 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -397,21 +412,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -695,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O63"/>
+  <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:D63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,10 +769,10 @@
       <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="36">
         <v>60</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -799,8 +799,8 @@
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="25"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="41"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="37"/>
       <c r="F5" s="1"/>
       <c r="G5" s="16"/>
       <c r="H5" s="10"/>
@@ -813,7 +813,7 @@
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="26"/>
-      <c r="C6" s="39"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="5"/>
       <c r="F6" s="1"/>
       <c r="G6" s="17"/>
@@ -838,7 +838,7 @@
       <c r="F7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="38" t="s">
         <v>10</v>
       </c>
       <c r="H7" s="27" t="s">
@@ -854,7 +854,7 @@
       <c r="C8" s="28"/>
       <c r="D8" s="31"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="34"/>
+      <c r="G8" s="39"/>
       <c r="H8" s="28"/>
       <c r="I8" s="31"/>
     </row>
@@ -864,7 +864,7 @@
       <c r="C9" s="29"/>
       <c r="D9" s="32"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="35"/>
+      <c r="G9" s="40"/>
       <c r="H9" s="29"/>
       <c r="I9" s="32"/>
     </row>
@@ -925,7 +925,7 @@
         <v>270</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="38" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="27" t="s">
@@ -941,7 +941,7 @@
       <c r="C14" s="28"/>
       <c r="D14" s="31"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="34"/>
+      <c r="G14" s="39"/>
       <c r="H14" s="28"/>
       <c r="I14" s="31"/>
     </row>
@@ -951,7 +951,7 @@
       <c r="C15" s="29"/>
       <c r="D15" s="32"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="35"/>
+      <c r="G15" s="40"/>
       <c r="H15" s="29"/>
       <c r="I15" s="32"/>
     </row>
@@ -967,7 +967,7 @@
         <v>90</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="33" t="s">
+      <c r="G16" s="38" t="s">
         <v>14</v>
       </c>
       <c r="H16" s="27" t="s">
@@ -983,7 +983,7 @@
       <c r="C17" s="28"/>
       <c r="D17" s="31"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="34"/>
+      <c r="G17" s="39"/>
       <c r="H17" s="28"/>
       <c r="I17" s="31"/>
     </row>
@@ -993,7 +993,7 @@
       <c r="C18" s="29"/>
       <c r="D18" s="32"/>
       <c r="F18" s="23"/>
-      <c r="G18" s="36"/>
+      <c r="G18" s="41"/>
       <c r="H18" s="29"/>
       <c r="I18" s="32"/>
     </row>
@@ -1015,7 +1015,7 @@
       <c r="C20" s="28"/>
       <c r="D20" s="31"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="33"/>
+      <c r="G20" s="38"/>
       <c r="H20" s="27"/>
       <c r="I20" s="30"/>
     </row>
@@ -1025,7 +1025,7 @@
       <c r="C21" s="29"/>
       <c r="D21" s="32"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="34"/>
+      <c r="G21" s="39"/>
       <c r="H21" s="28"/>
       <c r="I21" s="31"/>
     </row>
@@ -1041,7 +1041,7 @@
         <v>120</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="35"/>
+      <c r="G22" s="40"/>
       <c r="H22" s="29"/>
       <c r="I22" s="32"/>
     </row>
@@ -1051,7 +1051,7 @@
       <c r="C23" s="28"/>
       <c r="D23" s="31"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="33"/>
+      <c r="G23" s="38"/>
       <c r="H23" s="27"/>
       <c r="I23" s="30"/>
     </row>
@@ -1061,7 +1061,7 @@
       <c r="C24" s="29"/>
       <c r="D24" s="32"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="34"/>
+      <c r="G24" s="39"/>
       <c r="H24" s="28"/>
       <c r="I24" s="31"/>
     </row>
@@ -1077,7 +1077,7 @@
         <v>120</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="35"/>
+      <c r="G25" s="40"/>
       <c r="H25" s="29"/>
       <c r="I25" s="32"/>
     </row>
@@ -1087,7 +1087,7 @@
       <c r="C26" s="28"/>
       <c r="D26" s="31"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="33"/>
+      <c r="G26" s="38"/>
       <c r="H26" s="27"/>
       <c r="I26" s="30"/>
     </row>
@@ -1097,7 +1097,7 @@
       <c r="C27" s="29"/>
       <c r="D27" s="32"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="34"/>
+      <c r="G27" s="39"/>
       <c r="H27" s="28"/>
       <c r="I27" s="31"/>
     </row>
@@ -1113,7 +1113,7 @@
         <v>30</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="35"/>
+      <c r="G28" s="40"/>
       <c r="H28" s="29"/>
       <c r="I28" s="32"/>
     </row>
@@ -1393,23 +1393,84 @@
       <c r="C63" s="29"/>
       <c r="D63" s="32"/>
     </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D64" s="30">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="31"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="32"/>
+    </row>
   </sheetData>
-  <mergeCells count="78">
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="D52:D54"/>
+  <mergeCells count="81">
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B19:B21"/>
@@ -1424,55 +1485,21 @@
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="C16:C18"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D58:D60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Estimacion horas.xlsx
+++ b/Estimacion horas.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>Albert</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Recortar imagen fondo</t>
   </si>
   <si>
-    <t>Sistema movimiento fondo</t>
-  </si>
-  <si>
     <t>Crear modulo</t>
   </si>
   <si>
@@ -110,21 +107,6 @@
     <t>Punch, jump, kick, crushing wave animation</t>
   </si>
   <si>
-    <t>30 minutes</t>
-  </si>
-  <si>
-    <t>60 minutes</t>
-  </si>
-  <si>
-    <t>180 minutes</t>
-  </si>
-  <si>
-    <t>120 minutes</t>
-  </si>
-  <si>
-    <t>300 minutes</t>
-  </si>
-  <si>
     <t>Task</t>
   </si>
   <si>
@@ -143,22 +125,37 @@
     <t>Scene mapping</t>
   </si>
   <si>
-    <t>20 minutes</t>
-  </si>
-  <si>
     <t>Combo</t>
   </si>
   <si>
-    <t>90minutes</t>
-  </si>
-  <si>
     <t>Block, Pauses ;before and after match; Best of 3 rounds, auto win, auto lose</t>
   </si>
   <si>
-    <t>150 minutes</t>
-  </si>
-  <si>
     <t>Bugfixing</t>
+  </si>
+  <si>
+    <t>UI wiki</t>
+  </si>
+  <si>
+    <t>Concept art</t>
+  </si>
+  <si>
+    <t>UI home</t>
+  </si>
+  <si>
+    <t>General analysis</t>
+  </si>
+  <si>
+    <t>Sound</t>
+  </si>
+  <si>
+    <t>Handout 3, module background</t>
+  </si>
+  <si>
+    <t>Movement, module player</t>
+  </si>
+  <si>
+    <t>minutes</t>
   </si>
 </sst>
 </file>
@@ -311,7 +308,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1"/>
@@ -387,6 +384,45 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -402,18 +438,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -695,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O66"/>
+  <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,15 +756,17 @@
       <c r="O2" s="18"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B3" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="4" t="s">
@@ -763,16 +790,16 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="36">
+      <c r="A4" s="51">
+        <v>43540</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="46">
+        <v>120</v>
+      </c>
+      <c r="D4" s="49">
         <v>60</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -782,7 +809,7 @@
         <v>6</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I4" s="12">
         <v>20</v>
@@ -791,16 +818,16 @@
         <v>2</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="12"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="37"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="50"/>
       <c r="F5" s="1"/>
       <c r="G5" s="16"/>
       <c r="H5" s="10"/>
@@ -812,8 +839,8 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="48"/>
       <c r="D6" s="5"/>
       <c r="F6" s="1"/>
       <c r="G6" s="17"/>
@@ -825,68 +852,72 @@
       <c r="N6" s="14"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="30">
+      <c r="A7" s="51">
+        <v>43540</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="36">
+        <v>60</v>
+      </c>
+      <c r="D7" s="39">
         <v>120</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="27" t="s">
+      <c r="G7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="30">
+      <c r="H7" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="39">
         <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="31"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="40"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="31"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="40"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="32"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="41"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="32"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="41"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="30">
-        <v>420</v>
+      <c r="A10" s="51">
+        <v>43540</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="36">
+        <v>90</v>
+      </c>
+      <c r="D10" s="39">
+        <v>80</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>11</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>12</v>
       </c>
       <c r="I10" s="12">
         <v>70</v>
@@ -895,9 +926,9 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="31"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="40"/>
       <c r="F11" s="1"/>
       <c r="G11" s="7"/>
       <c r="H11" s="10"/>
@@ -905,312 +936,334 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="32"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="41"/>
       <c r="F12" s="1"/>
       <c r="G12" s="8"/>
       <c r="H12" s="11"/>
       <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="30">
-        <v>270</v>
+      <c r="A13" s="51">
+        <v>43541</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="36">
+        <v>90</v>
+      </c>
+      <c r="D13" s="39">
+        <v>100</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="27" t="s">
+      <c r="G13" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="30">
+      <c r="H13" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="39">
         <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="31"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="40"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="31"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="40"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="32"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="41"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="32"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="41"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="30">
+      <c r="A16" s="51">
+        <v>43541</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="36">
+        <v>120</v>
+      </c>
+      <c r="D16" s="39">
         <v>90</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16" s="30">
+      <c r="G16" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="39">
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="31"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="40"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="31"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="40"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="32"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="41"/>
       <c r="F18" s="23"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="32"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="41"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="30">
+      <c r="A19" s="51">
+        <v>43547</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="36">
+        <v>60</v>
+      </c>
+      <c r="D19" s="39">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="31"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="40"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="30"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="39"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="32"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="41"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="31"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="40"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="30">
+      <c r="A22" s="51">
+        <v>43552</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="46">
         <v>120</v>
       </c>
+      <c r="D22" s="49">
+        <v>60</v>
+      </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="32"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="41"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="31"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="50"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="30"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="39"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="32"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="5"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="31"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="40"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="30">
+      <c r="A25" s="51">
+        <v>43553</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="36">
+        <v>60</v>
+      </c>
+      <c r="D25" s="39">
         <v>120</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="32"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="41"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="31"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="40"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="30"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="39"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="32"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="41"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="31"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="40"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="30">
-        <v>30</v>
+      <c r="A28" s="51">
+        <v>43554</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="36">
+        <v>300</v>
+      </c>
+      <c r="D28" s="39">
+        <v>420</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="32"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="41"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="31"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="40"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="32"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="41"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="30">
-        <v>80</v>
+      <c r="A31" s="51">
+        <v>43557</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="36">
+        <v>300</v>
+      </c>
+      <c r="D31" s="39">
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="31"/>
+      <c r="A32" s="51">
+        <v>43530</v>
+      </c>
+      <c r="B32" s="34"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="40"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="32"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="41"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="30">
+      <c r="A34" s="51">
+        <v>43541</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="36">
         <v>120</v>
+      </c>
+      <c r="D34" s="39">
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="31"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="40"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="32"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="41"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="30">
-        <v>70</v>
+      <c r="A37" s="51">
+        <v>43542</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="36">
+        <v>60</v>
+      </c>
+      <c r="D37" s="39">
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="31"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="40"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="32"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="41"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
+      <c r="A40" s="51">
+        <v>43545</v>
+      </c>
       <c r="B40" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="C40" s="27">
+        <v>90</v>
       </c>
       <c r="D40" s="30">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1226,15 +1279,17 @@
       <c r="D42" s="32"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
+      <c r="A43" s="51">
+        <v>43549</v>
+      </c>
       <c r="B43" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>31</v>
+        <v>14</v>
+      </c>
+      <c r="C43" s="27">
+        <v>120</v>
       </c>
       <c r="D43" s="30">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1250,12 +1305,14 @@
       <c r="D45" s="32"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
+      <c r="A46" s="51">
+        <v>43554</v>
+      </c>
       <c r="B46" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="C46" s="27">
+        <v>60</v>
       </c>
       <c r="D46" s="30">
         <v>30</v>
@@ -1274,15 +1331,17 @@
       <c r="D48" s="32"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
+      <c r="A49" s="51">
+        <v>43572</v>
+      </c>
       <c r="B49" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="C49" s="27">
+        <v>120</v>
       </c>
       <c r="D49" s="30">
-        <v>45</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1298,15 +1357,17 @@
       <c r="D51" s="32"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
+      <c r="A52" s="51">
+        <v>43549</v>
+      </c>
       <c r="B52" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C52" s="27" t="s">
-        <v>39</v>
+        <v>19</v>
+      </c>
+      <c r="C52" s="27">
+        <v>180</v>
       </c>
       <c r="D52" s="30">
-        <v>30</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1322,15 +1383,17 @@
       <c r="D54" s="32"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
+      <c r="A55" s="51">
+        <v>43549</v>
+      </c>
       <c r="B55" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C55" s="27" t="s">
-        <v>28</v>
+        <v>16</v>
+      </c>
+      <c r="C55" s="27">
+        <v>60</v>
       </c>
       <c r="D55" s="30">
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1346,15 +1409,17 @@
       <c r="D57" s="32"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
+      <c r="A58" s="51">
+        <v>43549</v>
+      </c>
       <c r="B58" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C58" s="27" t="s">
-        <v>43</v>
+        <v>17</v>
+      </c>
+      <c r="C58" s="27">
+        <v>30</v>
       </c>
       <c r="D58" s="30">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1370,15 +1435,17 @@
       <c r="D60" s="32"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
+      <c r="A61" s="51">
+        <v>43549</v>
+      </c>
       <c r="B61" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C61" s="27" t="s">
-        <v>29</v>
+        <v>18</v>
+      </c>
+      <c r="C61" s="27">
+        <v>120</v>
       </c>
       <c r="D61" s="30">
-        <v>180</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1394,15 +1461,17 @@
       <c r="D63" s="32"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
+      <c r="A64" s="51">
+        <v>43549</v>
+      </c>
       <c r="B64" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C64" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="C64" s="27">
+        <v>30</v>
       </c>
       <c r="D64" s="30">
-        <v>240</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1417,60 +1486,180 @@
       <c r="C66" s="29"/>
       <c r="D66" s="32"/>
     </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="51">
+        <v>43549</v>
+      </c>
+      <c r="B67" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67" s="27">
+        <v>60</v>
+      </c>
+      <c r="D67" s="30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="31"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="32"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="51">
+        <v>43549</v>
+      </c>
+      <c r="B70" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70" s="27">
+        <v>20</v>
+      </c>
+      <c r="D70" s="30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="31"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="32"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="51">
+        <v>43549</v>
+      </c>
+      <c r="B73" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73" s="27">
+        <v>30</v>
+      </c>
+      <c r="D73" s="30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="31"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="32"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="51">
+        <v>43550</v>
+      </c>
+      <c r="B76" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C76" s="27">
+        <v>150</v>
+      </c>
+      <c r="D76" s="30">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="31"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="32"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="51">
+        <v>43551</v>
+      </c>
+      <c r="B79" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C79" s="27">
+        <v>60</v>
+      </c>
+      <c r="D79" s="30">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="31"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="32"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="51">
+        <v>43552</v>
+      </c>
+      <c r="B82" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C82" s="27">
+        <v>120</v>
+      </c>
+      <c r="D82" s="30">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="31"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="32">
+        <f>SUM(D4:D83)</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>43</v>
+      </c>
+      <c r="C85">
+        <f>SUM(C4:C84)</f>
+        <v>2750</v>
+      </c>
+      <c r="D85">
+        <f>SUM(D84)</f>
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="81">
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
+  <mergeCells count="54">
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B19:B21"/>
@@ -1485,21 +1674,46 @@
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="C16:C18"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
